--- a/output/ITAÚ_11960233000152.xlsx
+++ b/output/ITAÚ_11960233000152.xlsx
@@ -1670,10 +1670,10 @@
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>2.6486966</v>
+        <v>2.6503237</v>
       </c>
       <c r="C117">
-        <v>-0.004893283043856056</v>
+        <v>-0.004449525089533668</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_11960233000152.xlsx
+++ b/output/ITAÚ_11960233000152.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ HEDGE PLUS VÉRTICE MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1294 +383,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40663</v>
       </c>
       <c r="B2">
-        <v>0.004007400000000105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40694</v>
       </c>
       <c r="B3">
-        <v>0.01243240000000001</v>
-      </c>
-      <c r="C3">
         <v>0.008391372414187304</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40724</v>
       </c>
       <c r="B4">
-        <v>0.02278479999999994</v>
-      </c>
-      <c r="C4">
         <v>0.01022527528751538</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40755</v>
       </c>
       <c r="B5">
-        <v>0.03391129999999998</v>
-      </c>
-      <c r="C5">
         <v>0.01087863253345178</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40786</v>
       </c>
       <c r="B6">
-        <v>0.03929099999999996</v>
-      </c>
-      <c r="C6">
         <v>0.005203250994548547</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40816</v>
       </c>
       <c r="B7">
-        <v>0.04424410000000001</v>
-      </c>
-      <c r="C7">
         <v>0.004765845177144845</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40847</v>
       </c>
       <c r="B8">
-        <v>0.08097100000000013</v>
-      </c>
-      <c r="C8">
         <v>0.03517079962434089</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40877</v>
       </c>
       <c r="B9">
-        <v>0.08376410000000001</v>
-      </c>
-      <c r="C9">
         <v>0.002583880603642452</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40908</v>
       </c>
       <c r="B10">
-        <v>0.05771080000000017</v>
-      </c>
-      <c r="C10">
         <v>-0.02403964109901757</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40939</v>
       </c>
       <c r="B11">
-        <v>0.09457450000000001</v>
-      </c>
-      <c r="C11">
         <v>0.03485234338157439</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40968</v>
       </c>
       <c r="B12">
-        <v>0.1055899</v>
-      </c>
-      <c r="C12">
         <v>0.01006363660034104</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40999</v>
       </c>
       <c r="B13">
-        <v>0.1193398999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01243679957640698</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41029</v>
       </c>
       <c r="B14">
-        <v>0.1270836</v>
-      </c>
-      <c r="C14">
         <v>0.006918095209506925</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41060</v>
       </c>
       <c r="B15">
-        <v>0.1422748</v>
-      </c>
-      <c r="C15">
         <v>0.01347832583137576</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41090</v>
       </c>
       <c r="B16">
-        <v>0.1535465999999999</v>
-      </c>
-      <c r="C16">
         <v>0.009867853164579943</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41121</v>
       </c>
       <c r="B17">
-        <v>0.1652989</v>
-      </c>
-      <c r="C17">
         <v>0.01018797159993379</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41152</v>
       </c>
       <c r="B18">
-        <v>0.1699762</v>
-      </c>
-      <c r="C18">
         <v>0.004013819973570643</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41182</v>
       </c>
       <c r="B19">
-        <v>0.1637879999999998</v>
-      </c>
-      <c r="C19">
         <v>-0.00528916742067076</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41213</v>
       </c>
       <c r="B20">
-        <v>0.1591530999999999</v>
-      </c>
-      <c r="C20">
         <v>-0.003982598205171328</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41243</v>
       </c>
       <c r="B21">
-        <v>0.1661962000000001</v>
-      </c>
-      <c r="C21">
         <v>0.006076073988845909</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41274</v>
       </c>
       <c r="B22">
-        <v>0.2069314</v>
-      </c>
-      <c r="C22">
         <v>0.03492997147478261</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41305</v>
       </c>
       <c r="B23">
-        <v>0.2176167</v>
-      </c>
-      <c r="C23">
         <v>0.008853278653616847</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41333</v>
       </c>
       <c r="B24">
-        <v>0.2173674000000001</v>
-      </c>
-      <c r="C24">
         <v>-0.0002047442351931217</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41364</v>
       </c>
       <c r="B25">
-        <v>0.2454351000000001</v>
-      </c>
-      <c r="C25">
         <v>0.02305606343655997</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41394</v>
       </c>
       <c r="B26">
-        <v>0.2475947000000001</v>
-      </c>
-      <c r="C26">
         <v>0.001734012474837066</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41425</v>
       </c>
       <c r="B27">
-        <v>0.2654472999999999</v>
-      </c>
-      <c r="C27">
         <v>0.01430961513382512</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41455</v>
       </c>
       <c r="B28">
-        <v>0.2884437</v>
-      </c>
-      <c r="C28">
         <v>0.01817254657700884</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41486</v>
       </c>
       <c r="B29">
-        <v>0.2985492999999999</v>
-      </c>
-      <c r="C29">
         <v>0.007843260826996046</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41517</v>
       </c>
       <c r="B30">
-        <v>0.3084690000000001</v>
-      </c>
-      <c r="C30">
         <v>0.007639063068302532</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41547</v>
       </c>
       <c r="B31">
-        <v>0.3332845</v>
-      </c>
-      <c r="C31">
         <v>0.01896529455416962</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41578</v>
       </c>
       <c r="B32">
-        <v>0.3434035</v>
-      </c>
-      <c r="C32">
         <v>0.007589527966461729</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41608</v>
       </c>
       <c r="B33">
-        <v>0.3594722000000001</v>
-      </c>
-      <c r="C33">
         <v>0.01196118664273249</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41639</v>
       </c>
       <c r="B34">
-        <v>0.3867781000000001</v>
-      </c>
-      <c r="C34">
         <v>0.02008566265643386</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41670</v>
       </c>
       <c r="B35">
-        <v>0.4053149</v>
-      </c>
-      <c r="C35">
         <v>0.01336681045078514</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41698</v>
       </c>
       <c r="B36">
-        <v>0.4231251999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01267352961247314</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41729</v>
       </c>
       <c r="B37">
-        <v>0.4388545000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01105264666805161</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41759</v>
       </c>
       <c r="B38">
-        <v>0.452928</v>
-      </c>
-      <c r="C38">
         <v>0.009781044573999642</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41790</v>
       </c>
       <c r="B39">
-        <v>0.4732594000000001</v>
-      </c>
-      <c r="C39">
         <v>0.01399339815875256</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41820</v>
       </c>
       <c r="B40">
-        <v>0.4870509000000001</v>
-      </c>
-      <c r="C40">
         <v>0.009361216361490676</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41851</v>
       </c>
       <c r="B41">
-        <v>0.5066913</v>
-      </c>
-      <c r="C41">
         <v>0.01320761784280555</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41882</v>
       </c>
       <c r="B42">
-        <v>0.5153456000000001</v>
-      </c>
-      <c r="C42">
         <v>0.005743910514383499</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41912</v>
       </c>
       <c r="B43">
-        <v>0.5280482</v>
-      </c>
-      <c r="C43">
         <v>0.00838264221706253</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41943</v>
       </c>
       <c r="B44">
-        <v>0.5198265</v>
-      </c>
-      <c r="C44">
         <v>-0.005380523991324382</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41973</v>
       </c>
       <c r="B45">
-        <v>0.5288056999999999</v>
-      </c>
-      <c r="C45">
         <v>0.005908042793042467</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42004</v>
       </c>
       <c r="B46">
-        <v>0.5335475000000001</v>
-      </c>
-      <c r="C46">
         <v>0.003101636787461004</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42035</v>
       </c>
       <c r="B47">
-        <v>0.5465552</v>
-      </c>
-      <c r="C47">
         <v>0.008482097880893713</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42063</v>
       </c>
       <c r="B48">
-        <v>0.574109</v>
-      </c>
-      <c r="C48">
         <v>0.01781624089460232</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42094</v>
       </c>
       <c r="B49">
-        <v>0.5971278999999998</v>
-      </c>
-      <c r="C49">
         <v>0.01462344729621634</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42124</v>
       </c>
       <c r="B50">
-        <v>0.5998014</v>
-      </c>
-      <c r="C50">
         <v>0.001673942331105849</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42155</v>
       </c>
       <c r="B51">
-        <v>0.6372952000000001</v>
-      </c>
-      <c r="C51">
         <v>0.02343653405979018</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42185</v>
       </c>
       <c r="B52">
-        <v>0.6546987999999998</v>
-      </c>
-      <c r="C52">
         <v>0.01062948208728631</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42216</v>
       </c>
       <c r="B53">
-        <v>0.6892933999999999</v>
-      </c>
-      <c r="C53">
         <v>0.0209068864980142</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42247</v>
       </c>
       <c r="B54">
-        <v>0.6620143999999999</v>
-      </c>
-      <c r="C54">
         <v>-0.01614817177406835</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42277</v>
       </c>
       <c r="B55">
-        <v>0.7073601</v>
-      </c>
-      <c r="C55">
         <v>0.02728357828909322</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42308</v>
       </c>
       <c r="B56">
-        <v>0.7137974</v>
-      </c>
-      <c r="C56">
         <v>0.003770323553888844</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42338</v>
       </c>
       <c r="B57">
-        <v>0.7000979000000001</v>
-      </c>
-      <c r="C57">
         <v>-0.007993651991769823</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42369</v>
       </c>
       <c r="B58">
-        <v>0.6621528999999999</v>
-      </c>
-      <c r="C58">
         <v>-0.02231930290602679</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42400</v>
       </c>
       <c r="B59">
-        <v>0.6776363000000001</v>
-      </c>
-      <c r="C59">
         <v>0.009315268168169188</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42429</v>
       </c>
       <c r="B60">
-        <v>0.6473146000000001</v>
-      </c>
-      <c r="C60">
         <v>-0.01807406051001637</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42460</v>
       </c>
       <c r="B61">
-        <v>0.7105824999999999</v>
-      </c>
-      <c r="C61">
         <v>0.03840668928691571</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42490</v>
       </c>
       <c r="B62">
-        <v>0.7693786</v>
-      </c>
-      <c r="C62">
         <v>0.03437197562818528</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42521</v>
       </c>
       <c r="B63">
-        <v>0.7597335000000001</v>
-      </c>
-      <c r="C63">
         <v>-0.005451122784010165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42551</v>
       </c>
       <c r="B64">
-        <v>0.8380069999999999</v>
-      </c>
-      <c r="C64">
         <v>0.04448031477493597</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42582</v>
       </c>
       <c r="B65">
-        <v>0.8694123999999999</v>
-      </c>
-      <c r="C65">
         <v>0.0170866596264323</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42613</v>
       </c>
       <c r="B66">
-        <v>0.8955739999999999</v>
-      </c>
-      <c r="C66">
         <v>0.01399455786213899</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42643</v>
       </c>
       <c r="B67">
-        <v>0.9473852</v>
-      </c>
-      <c r="C67">
         <v>0.02733272349167071</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42674</v>
       </c>
       <c r="B68">
-        <v>1.0011442</v>
-      </c>
-      <c r="C68">
         <v>0.02760573511599018</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42704</v>
       </c>
       <c r="B69">
-        <v>1.0542746</v>
-      </c>
-      <c r="C69">
         <v>0.02655001073885654</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42735</v>
       </c>
       <c r="B70">
-        <v>1.1002275</v>
-      </c>
-      <c r="C70">
         <v>0.02236940475241211</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42766</v>
       </c>
       <c r="B71">
-        <v>1.1583821</v>
-      </c>
-      <c r="C71">
         <v>0.02768966695274666</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42794</v>
       </c>
       <c r="B72">
-        <v>1.2044209</v>
-      </c>
-      <c r="C72">
         <v>0.02133023619867846</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42825</v>
       </c>
       <c r="B73">
-        <v>1.2335292</v>
-      </c>
-      <c r="C73">
         <v>0.01320451098971187</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42855</v>
       </c>
       <c r="B74">
-        <v>1.2443325</v>
-      </c>
-      <c r="C74">
         <v>0.004836874306366923</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42886</v>
       </c>
       <c r="B75">
-        <v>1.1712173</v>
-      </c>
-      <c r="C75">
         <v>-0.03257770406122984</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42916</v>
       </c>
       <c r="B76">
-        <v>1.1861131</v>
-      </c>
-      <c r="C76">
         <v>0.006860575401642199</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42947</v>
       </c>
       <c r="B77">
-        <v>1.2187927</v>
-      </c>
-      <c r="C77">
         <v>0.01494872337574837</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42978</v>
       </c>
       <c r="B78">
-        <v>1.239045</v>
-      </c>
-      <c r="C78">
         <v>0.009127621521379581</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43008</v>
       </c>
       <c r="B79">
-        <v>1.3224732</v>
-      </c>
-      <c r="C79">
         <v>0.0372606178080388</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43039</v>
       </c>
       <c r="B80">
-        <v>1.3265643</v>
-      </c>
-      <c r="C80">
         <v>0.001761527323544732</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43069</v>
       </c>
       <c r="B81">
-        <v>1.3323047</v>
-      </c>
-      <c r="C81">
         <v>0.002467329185786848</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43100</v>
       </c>
       <c r="B82">
-        <v>1.3451563</v>
-      </c>
-      <c r="C82">
         <v>0.005510257729189671</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43131</v>
       </c>
       <c r="B83">
-        <v>1.3959514</v>
-      </c>
-      <c r="C83">
         <v>0.02165957979005473</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43159</v>
       </c>
       <c r="B84">
-        <v>1.4228773</v>
-      </c>
-      <c r="C84">
         <v>0.01123808270902327</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43190</v>
       </c>
       <c r="B85">
-        <v>1.4492502</v>
-      </c>
-      <c r="C85">
         <v>0.01088495071541606</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43220</v>
       </c>
       <c r="B86">
-        <v>1.4580892</v>
-      </c>
-      <c r="C86">
         <v>0.003608859560366495</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43251</v>
       </c>
       <c r="B87">
-        <v>1.5062914</v>
-      </c>
-      <c r="C87">
         <v>0.01960962197791671</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43281</v>
       </c>
       <c r="B88">
-        <v>1.6158169</v>
-      </c>
-      <c r="C88">
         <v>0.04370022575986177</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43312</v>
       </c>
       <c r="B89">
-        <v>1.599065</v>
-      </c>
-      <c r="C89">
         <v>-0.006404079735091606</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43343</v>
       </c>
       <c r="B90">
-        <v>1.6270521</v>
-      </c>
-      <c r="C90">
         <v>0.01076814162015949</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43373</v>
       </c>
       <c r="B91">
-        <v>1.6156147</v>
-      </c>
-      <c r="C91">
         <v>-0.00435370124558998</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43404</v>
       </c>
       <c r="B92">
-        <v>1.6979555</v>
-      </c>
-      <c r="C92">
         <v>0.03148047761010053</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43434</v>
       </c>
       <c r="B93">
-        <v>1.6807969</v>
-      </c>
-      <c r="C93">
         <v>-0.006359852858951909</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43465</v>
       </c>
       <c r="B94">
-        <v>1.7149001</v>
-      </c>
-      <c r="C94">
         <v>0.01272129194121341</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43496</v>
       </c>
       <c r="B95">
-        <v>1.7605377</v>
-      </c>
-      <c r="C95">
         <v>0.01681004763306015</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43524</v>
       </c>
       <c r="B96">
-        <v>1.7261666</v>
-      </c>
-      <c r="C96">
         <v>-0.01245087143711165</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43555</v>
       </c>
       <c r="B97">
-        <v>1.743974</v>
-      </c>
-      <c r="C97">
         <v>0.006532029260427397</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43585</v>
       </c>
       <c r="B98">
-        <v>1.7585055</v>
-      </c>
-      <c r="C98">
         <v>0.005295786330336893</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43616</v>
       </c>
       <c r="B99">
-        <v>1.7780504</v>
-      </c>
-      <c r="C99">
         <v>0.007085322106481273</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43646</v>
       </c>
       <c r="B100">
-        <v>1.8621817</v>
-      </c>
-      <c r="C100">
         <v>0.03028429577807512</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43677</v>
       </c>
       <c r="B101">
-        <v>1.8825373</v>
-      </c>
-      <c r="C101">
         <v>0.007111917457930828</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43708</v>
       </c>
       <c r="B102">
-        <v>1.9384719</v>
-      </c>
-      <c r="C102">
         <v>0.01940464048808677</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43738</v>
       </c>
       <c r="B103">
-        <v>1.9270927</v>
-      </c>
-      <c r="C103">
         <v>-0.003872488962715637</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43769</v>
       </c>
       <c r="B104">
-        <v>1.9810218</v>
-      </c>
-      <c r="C104">
         <v>0.01842411755527906</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43799</v>
       </c>
       <c r="B105">
-        <v>2.0317694</v>
-      </c>
-      <c r="C105">
         <v>0.01702355883475937</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43830</v>
       </c>
       <c r="B106">
-        <v>2.1153862</v>
-      </c>
-      <c r="C106">
         <v>0.02758019788708199</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43861</v>
       </c>
       <c r="B107">
-        <v>2.138443</v>
-      </c>
-      <c r="C107">
         <v>0.007400944383717079</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43890</v>
       </c>
       <c r="B108">
-        <v>2.1796109</v>
-      </c>
-      <c r="C108">
         <v>0.01311730052130966</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43921</v>
       </c>
       <c r="B109">
-        <v>2.4892641</v>
-      </c>
-      <c r="C109">
         <v>0.09738713626878037</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43951</v>
       </c>
       <c r="B110">
-        <v>2.5431926</v>
-      </c>
-      <c r="C110">
         <v>0.01545555121493947</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43982</v>
       </c>
       <c r="B111">
-        <v>2.542869</v>
-      </c>
-      <c r="C111">
         <v>-9.133006204609107e-05</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>44012</v>
       </c>
       <c r="B112">
-        <v>2.6140568</v>
-      </c>
-      <c r="C112">
         <v>0.02009326339754569</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44043</v>
       </c>
       <c r="B113">
-        <v>2.6364567</v>
-      </c>
-      <c r="C113">
         <v>0.006197993346424457</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44074</v>
       </c>
       <c r="B114">
-        <v>2.6900782</v>
-      </c>
-      <c r="C114">
         <v>0.01474553512489218</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44104</v>
       </c>
       <c r="B115">
-        <v>2.6469992</v>
-      </c>
-      <c r="C115">
         <v>-0.01167427833914203</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44135</v>
       </c>
       <c r="B116">
-        <v>2.6666385</v>
-      </c>
-      <c r="C116">
         <v>0.005385057391841475</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>2.6503237</v>
-      </c>
-      <c r="C117">
-        <v>-0.004449525089533668</v>
+        <v>-0.004489398123103672</v>
       </c>
     </row>
   </sheetData>
